--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 12,27</t>
+          <t>-4,49; 12,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 12,39</t>
+          <t>-9,41; 11,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 9,54</t>
+          <t>-17,47; 8,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 21,3</t>
+          <t>8,35; 21,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 187,98</t>
+          <t>-33,14; 198,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 81,3</t>
+          <t>-40,45; 84,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 35,48</t>
+          <t>-42,35; 31,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 1233,79</t>
+          <t>49,63; 1250,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,62</t>
+          <t>5,68; 15,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,61</t>
+          <t>-3,56; 7,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 6,58</t>
+          <t>-4,75; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,43</t>
+          <t>-3,44; 5,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 120,41</t>
+          <t>29,84; 110,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 27,42</t>
+          <t>-10,59; 29,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 20,43</t>
+          <t>-12,7; 22,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 47,13</t>
+          <t>-20,61; 49,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,11</t>
+          <t>5,53; 13,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,3</t>
+          <t>-4,69; 4,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,45</t>
+          <t>-3,38; 5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,15</t>
+          <t>-0,63; 5,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 86,38</t>
+          <t>30,64; 87,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 13,25</t>
+          <t>-12,53; 13,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 16,93</t>
+          <t>-9,33; 16,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 65,43</t>
+          <t>-4,57; 61,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 16,04</t>
+          <t>6,28; 15,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,63</t>
+          <t>-3,9; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,62</t>
+          <t>-1,03; 9,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 5,1</t>
+          <t>-5,89; 5,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 92,46</t>
+          <t>27,54; 92,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 20,51</t>
+          <t>-9,94; 19,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 24,43</t>
+          <t>-2,32; 22,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 41,36</t>
+          <t>-36,48; 40,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,74</t>
+          <t>5,41; 12,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,44</t>
+          <t>-2,2; 5,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 8,03</t>
+          <t>-0,4; 7,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,17</t>
+          <t>0,34; 8,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 66,47</t>
+          <t>23,22; 67,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 25,29</t>
+          <t>-9,26; 26,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 34,26</t>
+          <t>-1,22; 34,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 59,73</t>
+          <t>1,64; 62,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,73; 11,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,24; 3,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>-0,17; 4,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,89</t>
+          <t>0,74; 4,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,6; 68,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,94; 10,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>-0,45; 13,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 39,87</t>
+          <t>4,75; 38,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 12,28</t>
+          <t>-5,42; 11,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 11,6</t>
+          <t>-9,17; 12,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 8,27</t>
+          <t>-16,11; 9,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 198,55</t>
+          <t>-38,25; 184,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 84,42</t>
+          <t>-39,4; 89,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 31,12</t>
+          <t>-39,52; 35,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,27</t>
+          <t>5,87; 15,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,95</t>
+          <t>-3,98; 7,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,96</t>
+          <t>-5,45; 6,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 110,35</t>
+          <t>32,49; 113,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 29,97</t>
+          <t>-11,88; 27,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 22,21</t>
+          <t>-14,67; 21,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,09</t>
+          <t>5,38; 13,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,57</t>
+          <t>-4,27; 4,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,32</t>
+          <t>-3,14; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,64; 87,88</t>
+          <t>28,74; 88,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 13,78</t>
+          <t>-11,37; 13,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 16,42</t>
+          <t>-8,69; 18,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,94</t>
+          <t>6,32; 15,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,58</t>
+          <t>-4,15; 6,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 9,06</t>
+          <t>-1,68; 9,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 92,67</t>
+          <t>28,6; 91,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 19,5</t>
+          <t>-10,9; 20,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 22,39</t>
+          <t>-3,6; 22,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 12,99</t>
+          <t>5,58; 13,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 5,77</t>
+          <t>-2,52; 5,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,76</t>
+          <t>-0,05; 7,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,22; 67,43</t>
+          <t>24,2; 70,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 26,85</t>
+          <t>-9,66; 27,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 34,15</t>
+          <t>-0,5; 34,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,82</t>
+          <t>7,8; 11,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,19</t>
+          <t>-1,1; 3,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,44</t>
+          <t>-0,2; 4,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,6; 68,52</t>
+          <t>41,63; 70,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,76</t>
+          <t>-3,44; 10,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 13,84</t>
+          <t>-0,59; 13,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 11,94</t>
+          <t>-4,6; 12,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 12,27</t>
+          <t>-7,87; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 9,29</t>
+          <t>-15,03; 9,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 21,92</t>
+          <t>7,05; 21,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 184,51</t>
+          <t>-34,13; 187,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 89,48</t>
+          <t>-33,74; 81,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 35,65</t>
+          <t>-38,34; 35,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,63; 1250,44</t>
+          <t>41,19; 1233,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,13</t>
+          <t>5,75; 15,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,45</t>
+          <t>-3,55; 7,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 6,68</t>
+          <t>-5,31; 6,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,52</t>
+          <t>-2,95; 5,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,49; 113,94</t>
+          <t>32,41; 120,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 27,04</t>
+          <t>-11,48; 27,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 21,0</t>
+          <t>-14,33; 20,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 49,71</t>
+          <t>-17,99; 47,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,21</t>
+          <t>5,73; 13,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 4,59</t>
+          <t>-3,83; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,72</t>
+          <t>-2,97; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,84</t>
+          <t>-0,19; 6,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,74; 88,02</t>
+          <t>31,03; 86,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 13,67</t>
+          <t>-10,36; 13,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 18,87</t>
+          <t>-8,12; 16,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 61,57</t>
+          <t>-1,44; 65,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,36</t>
+          <t>6,34; 16,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,56</t>
+          <t>-3,51; 6,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,05</t>
+          <t>-0,93; 9,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,01</t>
+          <t>-5,46; 5,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 91,98</t>
+          <t>28,31; 92,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 20,0</t>
+          <t>-9,11; 20,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 22,63</t>
+          <t>-2,13; 24,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 40,54</t>
+          <t>-33,43; 41,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,4</t>
+          <t>5,19; 12,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,68</t>
+          <t>-2,81; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,86</t>
+          <t>-0,18; 8,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,33</t>
+          <t>0,19; 8,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,2; 70,54</t>
+          <t>22,59; 66,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 27,38</t>
+          <t>-11,26; 25,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 34,35</t>
+          <t>-0,86; 34,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 62,81</t>
+          <t>0,5; 59,73</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,99</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,1</t>
+          <t>-1,36; 3,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,44</t>
+          <t>-0,0; 4,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,79</t>
+          <t>0,65; 4,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,63; 70,04</t>
+          <t>41,09; 70,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,47</t>
+          <t>-4,36; 11,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,64</t>
+          <t>-0,12; 13,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 38,99</t>
+          <t>4,23; 39,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>64,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>342,66%</t>
+          <t>29,5%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 12,27</t>
+          <t>5,21; 13,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 12,39</t>
+          <t>-2,66; 6,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 9,54</t>
+          <t>-5,51; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 21,3</t>
+          <t>-0,29; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 187,98</t>
+          <t>31,36; 102,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 81,3</t>
+          <t>-8,81; 26,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 35,48</t>
+          <t>-15,49; 15,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 1233,79</t>
+          <t>-1,04; 78,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>49,84%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,62</t>
+          <t>5,73; 13,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,61</t>
+          <t>-3,83; 4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 6,58</t>
+          <t>-2,97; 5,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,43</t>
+          <t>1,02; 9,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 120,41</t>
+          <t>31,03; 86,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 27,42</t>
+          <t>-10,36; 13,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 20,43</t>
+          <t>-8,12; 16,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 47,13</t>
+          <t>8,12; 182,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>-3,21%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,11</t>
+          <t>6,34; 16,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,3</t>
+          <t>-3,51; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,45</t>
+          <t>-0,93; 9,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,15</t>
+          <t>-9,06; 4,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 86,38</t>
+          <t>28,31; 92,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 13,25</t>
+          <t>-9,11; 20,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 16,93</t>
+          <t>-2,13; 24,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 65,43</t>
+          <t>-51,81; 37,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>53,9%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 16,04</t>
+          <t>5,19; 12,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,63</t>
+          <t>-2,81; 5,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,62</t>
+          <t>-0,18; 8,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 5,1</t>
+          <t>1,68; 30,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 92,46</t>
+          <t>22,59; 66,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 20,51</t>
+          <t>-11,26; 25,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 24,43</t>
+          <t>-0,86; 34,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 41,36</t>
+          <t>10,01; 207,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>37,45%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,74</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,44</t>
+          <t>-1,36; 3,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 8,03</t>
+          <t>-0,0; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,17</t>
+          <t>1,19; 10,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 66,47</t>
+          <t>41,09; 70,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 25,29</t>
+          <t>-4,36; 11,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 34,26</t>
+          <t>-0,12; 13,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 59,73</t>
+          <t>9,05; 95,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,74</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>53,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 11,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 3,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 4,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 4,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>41,09; 70,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 11,49</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 13,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 39,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,5</t>
+          <t>5,32; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,95</t>
+          <t>-2,83; 7,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,94</t>
+          <t>-5,37; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,26</t>
+          <t>-0,65; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 102,53</t>
+          <t>32,25; 102,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 26,98</t>
+          <t>-9,01; 27,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 15,32</t>
+          <t>-14,42; 16,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 78,2</t>
+          <t>-5,75; 71,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,11</t>
+          <t>5,24; 13,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,3</t>
+          <t>-4,36; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,45</t>
+          <t>-3,23; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,98</t>
+          <t>1,24; 10,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,03; 86,38</t>
+          <t>28,73; 88,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 13,25</t>
+          <t>-11,61; 14,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 16,93</t>
+          <t>-8,87; 15,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 182,97</t>
+          <t>9,91; 190,81</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 16,04</t>
+          <t>5,9; 15,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,63</t>
+          <t>-3,76; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,62</t>
+          <t>-0,78; 9,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 4,7</t>
+          <t>-8,49; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,31; 92,46</t>
+          <t>24,97; 87,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 20,51</t>
+          <t>-9,86; 18,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 24,43</t>
+          <t>-1,49; 25,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 37,09</t>
+          <t>-56,09; 40,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,74</t>
+          <t>5,17; 12,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,44</t>
+          <t>-2,73; 5,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 8,03</t>
+          <t>-0,28; 7,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 30,15</t>
+          <t>1,6; 22,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 66,47</t>
+          <t>23,12; 68,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 25,29</t>
+          <t>-10,42; 24,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 34,26</t>
+          <t>-0,72; 35,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 207,08</t>
+          <t>9,94; 166,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,84; 11,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,16; 3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>0,09; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,59</t>
+          <t>1,41; 9,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,78; 69,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,67; 12,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>0,3; 14,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 95,38</t>
+          <t>9,46; 83,51</t>
         </is>
       </c>
     </row>
